--- a/OptForce_bdoh/OutputsFindMustLL/MustLL_Info.xlsx
+++ b/OptForce_bdoh/OutputsFindMustLL/MustLL_Info.xlsx
@@ -12,33 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Reactions</t>
   </si>
   <si>
-    <t>butanediol_tx or carbon_dioxide_tx</t>
+    <t>acetaldehyde_oxidoreductase or butanediol_tx</t>
   </si>
   <si>
-    <t>rnf or carbon_dioxide_tx</t>
+    <t>rnf or acetaldehyde_oxidoreductase</t>
   </si>
   <si>
-    <t>carbon_dioxide_tx or METHENYLTHFCYCLOHYDRO-RXN</t>
+    <t>acetaldehyde_oxidoreductase or atp_synthase</t>
   </si>
   <si>
-    <t>METHYLENETHFDEHYDROG-NADP-RXN or carbon_dioxide_tx</t>
+    <t>butanediol_tx or rnf</t>
   </si>
   <si>
-    <t>atp_synthase or carbon_dioxide_tx</t>
+    <t>acetaldehyde_oxidoreductase or carbon_dioxide_tx</t>
   </si>
   <si>
-    <t>rnf or butanediol_tx</t>
-  </si>
-  <si>
-    <t>carbon_dioxide_tx or nfn</t>
-  </si>
-  <si>
-    <t>butanediol_tx or METHYLENETHFDEHYDROG-NADP-RXN</t>
+    <t>acetaldehyde_oxidoreductase or RXN-11811</t>
   </si>
 </sst>
 </file>
@@ -124,16 +118,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
